--- a/artfynd/A 29213-2021.xlsx
+++ b/artfynd/A 29213-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94746267</v>
+        <v>94747241</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,48 +692,47 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ängelsfors, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>563670.0922861055</v>
+        <v>563857.9908253724</v>
       </c>
       <c r="R2" t="n">
-        <v>6711641.740220776</v>
+        <v>6711666.716977899</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -784,6 +783,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94746350</v>
+        <v>94746267</v>
       </c>
       <c r="B3" t="n">
-        <v>101120</v>
+        <v>96334</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,29 +814,37 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222002</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,10 +852,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>563673.5095373251</v>
+        <v>563670.0922861055</v>
       </c>
       <c r="R3" t="n">
-        <v>6711615.711973636</v>
+        <v>6711641.740220776</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -916,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94746394</v>
+        <v>94746350</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>101120</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,37 +936,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>222002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>563679.3894672301</v>
+        <v>563673.5095373251</v>
       </c>
       <c r="R4" t="n">
-        <v>6711617.784626649</v>
+        <v>6711615.711973636</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94747241</v>
+        <v>94746394</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,47 +1050,48 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Ängelsfors, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>563857.9908253724</v>
+        <v>563679.3894672301</v>
       </c>
       <c r="R5" t="n">
-        <v>6711666.716977899</v>
+        <v>6711617.784626649</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1141,7 +1142,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 29213-2021.xlsx
+++ b/artfynd/A 29213-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94747241</v>
+        <v>94746267</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,47 +692,48 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Ängelsfors, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>563857.9908253724</v>
+        <v>563670.0922861055</v>
       </c>
       <c r="R2" t="n">
-        <v>6711666.716977899</v>
+        <v>6711641.740220776</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -783,7 +784,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94746267</v>
+        <v>94746350</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>101120</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,37 +814,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>222002</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -852,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>563670.0922861055</v>
+        <v>563673.5095373251</v>
       </c>
       <c r="R3" t="n">
-        <v>6711641.740220776</v>
+        <v>6711615.711973636</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -924,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94746350</v>
+        <v>94746394</v>
       </c>
       <c r="B4" t="n">
-        <v>101120</v>
+        <v>96334</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,29 +928,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222002</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomknopp</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>563673.5095373251</v>
+        <v>563679.3894672301</v>
       </c>
       <c r="R4" t="n">
-        <v>6711615.711973636</v>
+        <v>6711617.784626649</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94746394</v>
+        <v>94747241</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,48 +1050,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomknopp</t>
-        </is>
-      </c>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Ängelsfors, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>563679.3894672301</v>
+        <v>563857.9908253724</v>
       </c>
       <c r="R5" t="n">
-        <v>6711617.784626649</v>
+        <v>6711666.716977899</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1142,6 +1141,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
